--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/CurveComparison.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/CurveComparison.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B95E9-D159-42B7-A2F7-F106D9D2962B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12315" windowHeight="13035" tabRatio="719" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="225" windowWidth="26370" windowHeight="14820" tabRatio="719" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="5" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="IRCurveOIS">'Curve Data'!$A$5</definedName>
     <definedName name="Market">'GetInfo &amp; GetInstrumentInfo'!$E$7</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="171027" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -3788,7 +3789,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3799,7 +3800,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:ext cx="9295379" cy="6072187"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4890,7 +4891,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5343,7 +5344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A7:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
